--- a/projects/GMaps Data/2025-12-12/supermarkets_in_Mitilini.xlsx
+++ b/projects/GMaps Data/2025-12-12/supermarkets_in_Mitilini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>longitude</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>plus_code</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -538,6 +543,7 @@
       <c r="K2" t="n">
         <v>26.5114744</v>
       </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -579,6 +585,7 @@
       <c r="K3" t="n">
         <v>26.5114744</v>
       </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -628,6 +635,7 @@
       <c r="K4" t="n">
         <v>26.5114744</v>
       </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -669,6 +677,7 @@
       <c r="K5" t="n">
         <v>26.5114744</v>
       </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -718,6 +727,7 @@
       <c r="K6" t="n">
         <v>26.4647783</v>
       </c>
+      <c r="L6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
